--- a/Bitacoras/5.Inicio 13 Mayo/BITACORA ETAPA PRODUCTIVA.xlsx
+++ b/Bitacoras/5.Inicio 13 Mayo/BITACORA ETAPA PRODUCTIVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferney.ruiz\Documents\GitHub\Files-Practice\Bitacoras\5.Inicio 13 Mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9CE02307-3FC1-4367-9EB2-3BE922DD8443}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BBD2182A-4D17-4801-B09E-29E669B2F38E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>SERVICIO NACIONAL DE APRENDIZAJE SENA</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t xml:space="preserve">Realizar depuracion de datos y hacer la query Merge de la ETL SyR  </t>
+  </si>
+  <si>
+    <t>Optimizar la ETL Financiaciones y hacer la query Merge</t>
   </si>
 </sst>
 </file>
@@ -866,7 +869,136 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -875,115 +1007,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1011,8 +1044,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1045,92 +1078,62 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1553,7 +1556,7 @@
   <dimension ref="A1:X108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:N39"/>
+      <selection activeCell="O39" sqref="O39:R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1577,138 +1580,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="106"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="134" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="136"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="74"/>
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="140" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="142"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="83"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="74" t="s">
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="77"/>
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="92"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="74" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="77"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="94"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="137" t="s">
+      <c r="B5" s="151"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="138"/>
-      <c r="P5" s="138"/>
-      <c r="Q5" s="138"/>
-      <c r="R5" s="138"/>
-      <c r="S5" s="138"/>
-      <c r="T5" s="138"/>
-      <c r="U5" s="138"/>
-      <c r="V5" s="138"/>
-      <c r="W5" s="139"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="80"/>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1737,30 +1740,30 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" s="27" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1821,24 +1824,24 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="116" t="s">
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="129"/>
+      <c r="P10" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="116"/>
+      <c r="Q10" s="126"/>
+      <c r="R10" s="126"/>
       <c r="S10" s="30" t="s">
         <v>11</v>
       </c>
@@ -1870,9 +1873,9 @@
       <c r="M11" s="6"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="116"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="126"/>
+      <c r="R11" s="126"/>
       <c r="S11" s="38"/>
       <c r="T11" s="52"/>
       <c r="U11" s="52"/>
@@ -1886,26 +1889,26 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="71">
+      <c r="E12" s="146">
         <v>1056592950</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="148"/>
       <c r="K12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="120" t="s">
+      <c r="L12" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="116"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="126"/>
+      <c r="R12" s="126"/>
       <c r="S12" s="30" t="s">
         <v>12</v>
       </c>
@@ -1952,19 +1955,19 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="68" t="s">
+      <c r="E14" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="96" t="s">
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="96"/>
-      <c r="M14" s="97"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="135"/>
       <c r="N14" s="53">
         <v>27</v>
       </c>
@@ -1974,11 +1977,11 @@
       <c r="P14" s="53">
         <v>2018</v>
       </c>
-      <c r="Q14" s="123" t="s">
+      <c r="Q14" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="96"/>
-      <c r="S14" s="97"/>
+      <c r="R14" s="134"/>
+      <c r="S14" s="135"/>
       <c r="T14" s="51">
         <v>27</v>
       </c>
@@ -2022,30 +2025,30 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="113"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="123"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="25" t="s">
         <v>4</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="114">
+      <c r="T16" s="124">
         <v>1193307</v>
       </c>
-      <c r="U16" s="114"/>
-      <c r="V16" s="114"/>
+      <c r="U16" s="124"/>
+      <c r="V16" s="124"/>
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:24" s="2" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2080,32 +2083,32 @@
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="115">
+      <c r="E18" s="84">
         <v>3002876907</v>
       </c>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="147" t="s">
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="148"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="129" t="s">
+      <c r="I18" s="92"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="115" t="s">
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="R18" s="115"/>
-      <c r="S18" s="115"/>
-      <c r="T18" s="115"/>
-      <c r="U18" s="115"/>
-      <c r="V18" s="115"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
       <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:24" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2184,30 +2187,30 @@
       <c r="W21" s="31"/>
     </row>
     <row r="22" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
-      <c r="T22" s="91"/>
-      <c r="U22" s="91"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="91"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2269,29 +2272,29 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="77" t="s">
+      <c r="F25" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="70"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="112"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="113"/>
       <c r="Q25" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R25" s="77" t="s">
+      <c r="R25" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="70"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="112"/>
+      <c r="U25" s="112"/>
+      <c r="V25" s="113"/>
       <c r="W25" s="12"/>
     </row>
     <row r="26" spans="1:24" s="2" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2325,35 +2328,35 @@
         <v>19</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="70"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="113"/>
       <c r="L27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="115" t="s">
+      <c r="M27" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="N27" s="115"/>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
       <c r="Q27" s="48" t="s">
         <v>21</v>
       </c>
       <c r="R27" s="49"/>
-      <c r="S27" s="115" t="s">
+      <c r="S27" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="T27" s="115"/>
-      <c r="U27" s="115"/>
-      <c r="V27" s="115"/>
+      <c r="T27" s="84"/>
+      <c r="U27" s="84"/>
+      <c r="V27" s="84"/>
       <c r="W27" s="22"/>
     </row>
     <row r="28" spans="1:24" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2387,35 +2390,35 @@
         <v>22</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="129" t="s">
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="130"/>
-      <c r="L29" s="77" t="s">
+      <c r="K29" s="89"/>
+      <c r="L29" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="70"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="113"/>
       <c r="Q29" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="77" t="s">
+      <c r="R29" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="70"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="113"/>
       <c r="W29" s="22"/>
     </row>
     <row r="30" spans="1:24" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2446,36 +2449,36 @@
       <c r="B31" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="68" t="s">
+      <c r="C31" s="125" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="86" t="s">
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="150"/>
       <c r="K31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="142"/>
       <c r="Q31" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="R31" s="108" t="s">
+      <c r="R31" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="S31" s="109"/>
-      <c r="T31" s="109"/>
-      <c r="U31" s="109"/>
-      <c r="V31" s="110"/>
+      <c r="S31" s="119"/>
+      <c r="T31" s="119"/>
+      <c r="U31" s="119"/>
+      <c r="V31" s="120"/>
       <c r="W31" s="43"/>
     </row>
     <row r="32" spans="1:24" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2528,30 +2531,30 @@
       <c r="W33" s="31"/>
     </row>
     <row r="34" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="91"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="91"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
       <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2581,151 +2584,153 @@
       <c r="X35" s="2"/>
     </row>
     <row r="36" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="149" t="s">
+      <c r="B36" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="125" t="s">
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="95"/>
+      <c r="F36" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="125"/>
-      <c r="M36" s="125"/>
-      <c r="N36" s="126"/>
-      <c r="O36" s="124" t="s">
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="94"/>
+      <c r="K36" s="94"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="124"/>
-      <c r="Q36" s="124"/>
-      <c r="R36" s="124"/>
-      <c r="S36" s="98" t="s">
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="102"/>
+      <c r="S36" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="T36" s="99"/>
-      <c r="U36" s="99"/>
-      <c r="V36" s="100"/>
+      <c r="T36" s="137"/>
+      <c r="U36" s="137"/>
+      <c r="V36" s="138"/>
       <c r="W36" s="23"/>
     </row>
     <row r="37" spans="1:24" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="151"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="127"/>
-      <c r="I37" s="127"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="127"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="127"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="105" t="s">
+      <c r="B37" s="96"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="97"/>
+      <c r="M37" s="97"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="105" t="s">
+      <c r="P37" s="103"/>
+      <c r="Q37" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="R37" s="105"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="102"/>
-      <c r="U37" s="102"/>
-      <c r="V37" s="103"/>
+      <c r="R37" s="103"/>
+      <c r="S37" s="139"/>
+      <c r="T37" s="140"/>
+      <c r="U37" s="140"/>
+      <c r="V37" s="141"/>
       <c r="W37" s="23"/>
     </row>
     <row r="38" spans="1:24" s="4" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="81" t="s">
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="84">
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="109"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="109"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
+      <c r="N38" s="110"/>
+      <c r="O38" s="104">
         <v>43221</v>
       </c>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="84">
+      <c r="P38" s="105"/>
+      <c r="Q38" s="104">
         <v>43223</v>
       </c>
-      <c r="R38" s="85"/>
-      <c r="S38" s="88"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="90"/>
+      <c r="R38" s="105"/>
+      <c r="S38" s="143"/>
+      <c r="T38" s="144"/>
+      <c r="U38" s="144"/>
+      <c r="V38" s="145"/>
       <c r="W38" s="23"/>
     </row>
     <row r="39" spans="1:24" s="4" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="84">
-        <v>43207</v>
-      </c>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="84">
-        <v>43207</v>
-      </c>
-      <c r="R39" s="85"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="89"/>
-      <c r="U39" s="89"/>
-      <c r="V39" s="90"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="109"/>
+      <c r="J39" s="109"/>
+      <c r="K39" s="109"/>
+      <c r="L39" s="109"/>
+      <c r="M39" s="109"/>
+      <c r="N39" s="110"/>
+      <c r="O39" s="104">
+        <v>43224</v>
+      </c>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="104">
+        <v>43225</v>
+      </c>
+      <c r="R39" s="105"/>
+      <c r="S39" s="143"/>
+      <c r="T39" s="144"/>
+      <c r="U39" s="144"/>
+      <c r="V39" s="145"/>
       <c r="W39" s="23"/>
     </row>
     <row r="40" spans="1:24" s="4" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="84">
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="109"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="109"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="109"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="104">
         <v>43208</v>
       </c>
-      <c r="P40" s="85"/>
-      <c r="Q40" s="84">
+      <c r="P40" s="105"/>
+      <c r="Q40" s="104">
         <v>43208</v>
       </c>
-      <c r="R40" s="85"/>
+      <c r="R40" s="105"/>
       <c r="S40" s="55"/>
       <c r="T40" s="56"/>
       <c r="U40" s="56"/>
@@ -2733,31 +2738,31 @@
       <c r="W40" s="23"/>
     </row>
     <row r="41" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="81" t="s">
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="84">
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="109"/>
+      <c r="K41" s="109"/>
+      <c r="L41" s="109"/>
+      <c r="M41" s="109"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="104">
         <v>43209</v>
       </c>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="84">
+      <c r="P41" s="105"/>
+      <c r="Q41" s="104">
         <v>43210</v>
       </c>
-      <c r="R41" s="85"/>
+      <c r="R41" s="105"/>
       <c r="S41" s="58"/>
       <c r="T41" s="59"/>
       <c r="U41" s="59"/>
@@ -2765,29 +2770,29 @@
       <c r="W41" s="23"/>
     </row>
     <row r="42" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="84">
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="109"/>
+      <c r="J42" s="109"/>
+      <c r="K42" s="109"/>
+      <c r="L42" s="109"/>
+      <c r="M42" s="109"/>
+      <c r="N42" s="110"/>
+      <c r="O42" s="104">
         <v>43213</v>
       </c>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="84">
+      <c r="P42" s="105"/>
+      <c r="Q42" s="104">
         <v>43214</v>
       </c>
-      <c r="R42" s="85"/>
+      <c r="R42" s="105"/>
       <c r="S42" s="61"/>
       <c r="T42" s="62"/>
       <c r="U42" s="64"/>
@@ -2795,29 +2800,29 @@
       <c r="W42" s="23"/>
     </row>
     <row r="43" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="84">
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="109"/>
+      <c r="J43" s="109"/>
+      <c r="K43" s="109"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="109"/>
+      <c r="N43" s="110"/>
+      <c r="O43" s="104">
         <v>43214</v>
       </c>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="84">
+      <c r="P43" s="105"/>
+      <c r="Q43" s="104">
         <v>43220</v>
       </c>
-      <c r="R43" s="85"/>
+      <c r="R43" s="105"/>
       <c r="S43" s="65"/>
       <c r="T43" s="66"/>
       <c r="U43" s="64"/>
@@ -2854,30 +2859,30 @@
       <c r="W48" s="31"/>
     </row>
     <row r="49" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="91" t="s">
+      <c r="B49" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="91"/>
-      <c r="I49" s="91"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="91"/>
-      <c r="L49" s="91"/>
-      <c r="M49" s="91"/>
-      <c r="N49" s="91"/>
-      <c r="O49" s="91"/>
-      <c r="P49" s="91"/>
-      <c r="Q49" s="91"/>
-      <c r="R49" s="91"/>
-      <c r="S49" s="91"/>
-      <c r="T49" s="91"/>
-      <c r="U49" s="91"/>
-      <c r="V49" s="91"/>
-      <c r="W49" s="91"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
+      <c r="V49" s="71"/>
+      <c r="W49" s="71"/>
       <c r="X49" s="2"/>
     </row>
     <row r="50" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2907,29 +2912,29 @@
       <c r="X50" s="2"/>
     </row>
     <row r="51" spans="1:24" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="131" t="s">
+      <c r="B51" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="132"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="132"/>
-      <c r="F51" s="132"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="132"/>
-      <c r="K51" s="132"/>
-      <c r="L51" s="132"/>
-      <c r="M51" s="132"/>
-      <c r="N51" s="132"/>
-      <c r="O51" s="132"/>
-      <c r="P51" s="132"/>
-      <c r="Q51" s="132"/>
-      <c r="R51" s="132"/>
-      <c r="S51" s="132"/>
-      <c r="T51" s="132"/>
-      <c r="U51" s="132"/>
-      <c r="V51" s="133"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="69"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="69"/>
+      <c r="P51" s="69"/>
+      <c r="Q51" s="69"/>
+      <c r="R51" s="69"/>
+      <c r="S51" s="69"/>
+      <c r="T51" s="69"/>
+      <c r="U51" s="69"/>
+      <c r="V51" s="70"/>
       <c r="W51" s="23"/>
     </row>
     <row r="52" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3014,6 +3019,64 @@
     <row r="108" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B34:W34"/>
+    <mergeCell ref="S36:V37"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="F39:N39"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="F41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="F40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="F42:N42"/>
+    <mergeCell ref="R29:V29"/>
+    <mergeCell ref="R31:V31"/>
+    <mergeCell ref="E16:O16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="B22:W22"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="F25:P25"/>
+    <mergeCell ref="R25:V25"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="P10:R12"/>
+    <mergeCell ref="E10:O10"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="D4:W4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B7:W7"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="F36:N37"/>
+    <mergeCell ref="F38:N38"/>
     <mergeCell ref="B51:V51"/>
     <mergeCell ref="B49:W49"/>
     <mergeCell ref="D1:W1"/>
@@ -3030,64 +3093,6 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="M27:P27"/>
     <mergeCell ref="O36:R36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="F36:N37"/>
-    <mergeCell ref="F38:N38"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="R29:V29"/>
-    <mergeCell ref="R31:V31"/>
-    <mergeCell ref="E16:O16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="B22:W22"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="F25:P25"/>
-    <mergeCell ref="R25:V25"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="P10:R12"/>
-    <mergeCell ref="E10:O10"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="F41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="F40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="F42:N42"/>
-    <mergeCell ref="S36:V37"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="F39:N39"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="D4:W4"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="B34:W34"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="B7:W7"/>
-    <mergeCell ref="D29:I29"/>
   </mergeCells>
   <dataValidations xWindow="662" yWindow="599" count="1">
     <dataValidation type="textLength" errorStyle="information" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Máximo 300 caracteres" error="Excede el número maximo de caracteres_x000a_" promptTitle="Introducir " prompt="Máximo 300 caracteres" sqref="F39:N41 F42:F43 F38" xr:uid="{00000000-0002-0000-0000-000001000000}">

--- a/Bitacoras/5.Inicio 13 Mayo/BITACORA ETAPA PRODUCTIVA.xlsx
+++ b/Bitacoras/5.Inicio 13 Mayo/BITACORA ETAPA PRODUCTIVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferney.ruiz\Documents\GitHub\Files-Practice\Bitacoras\5.Inicio 13 Mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BBD2182A-4D17-4801-B09E-29E669B2F38E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7FB289FE-281D-4444-BE2F-687CFFA8B7B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <sheet name="Hoja4" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$X$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$X$53</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>SERVICIO NACIONAL DE APRENDIZAJE SENA</t>
   </si>
@@ -264,9 +264,6 @@
 </t>
   </si>
   <si>
-    <t>Arreglar y depurar la ETL (Cargue Maestra)</t>
-  </si>
-  <si>
     <t xml:space="preserve">msaavedra@lisim.com </t>
   </si>
   <si>
@@ -274,6 +271,15 @@
   </si>
   <si>
     <t>Optimizar la ETL Financiaciones y hacer la query Merge</t>
+  </si>
+  <si>
+    <t>Realizar el cargue de ETB desde el aplicativo</t>
+  </si>
+  <si>
+    <t>Realizar cargue Demografica desde el aplicativo y arreglar el query de financiaciones</t>
+  </si>
+  <si>
+    <t>Validar la cantidad de registros del cargue de SyR de ETB</t>
   </si>
 </sst>
 </file>
@@ -705,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -869,125 +875,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1006,18 +907,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1031,58 +920,220 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1113,27 +1164,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1553,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X108"/>
+  <dimension ref="A1:X109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39:R39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1580,138 +1610,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="114"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="72" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="74"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="134"/>
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="116"/>
       <c r="C2" s="117"/>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="83"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="137"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="116"/>
       <c r="C3" s="117"/>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="77"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="115"/>
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="116"/>
       <c r="C4" s="117"/>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="77"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="114"/>
+      <c r="O4" s="114"/>
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="114"/>
+      <c r="U4" s="114"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="115"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="151"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="78" t="s">
+      <c r="B5" s="118"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="80"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="122"/>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1740,30 +1770,30 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" s="27" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1824,24 +1854,24 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="127" t="s">
+      <c r="E10" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="128"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="128"/>
-      <c r="M10" s="128"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="126" t="s">
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="126"/>
-      <c r="R10" s="126"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
       <c r="S10" s="30" t="s">
         <v>11</v>
       </c>
@@ -1873,9 +1903,9 @@
       <c r="M11" s="6"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
       <c r="S11" s="38"/>
       <c r="T11" s="52"/>
       <c r="U11" s="52"/>
@@ -1889,26 +1919,26 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="146">
+      <c r="E12" s="110">
         <v>1056592950</v>
       </c>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="148"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="112"/>
       <c r="K12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="130" t="s">
+      <c r="L12" s="129" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="126"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="131"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="125"/>
       <c r="S12" s="30" t="s">
         <v>12</v>
       </c>
@@ -1955,19 +1985,19 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="125" t="s">
+      <c r="E14" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="134" t="s">
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="134"/>
-      <c r="M14" s="135"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="109"/>
       <c r="N14" s="53">
         <v>27</v>
       </c>
@@ -1977,11 +2007,11 @@
       <c r="P14" s="53">
         <v>2018</v>
       </c>
-      <c r="Q14" s="133" t="s">
+      <c r="Q14" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="134"/>
-      <c r="S14" s="135"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="109"/>
       <c r="T14" s="51">
         <v>27</v>
       </c>
@@ -2025,30 +2055,30 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="121" t="s">
+      <c r="E16" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="122"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="123"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="148"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="25" t="s">
         <v>4</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="124">
+      <c r="T16" s="138">
         <v>1193307</v>
       </c>
-      <c r="U16" s="124"/>
-      <c r="V16" s="124"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="138"/>
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:24" s="2" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2083,32 +2113,32 @@
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="84">
+      <c r="E18" s="139">
         <v>3002876907</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="91" t="s">
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="92"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="88" t="s">
+      <c r="I18" s="145"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="84" t="s">
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
       <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:24" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2187,30 +2217,30 @@
       <c r="W21" s="31"/>
     </row>
     <row r="22" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+      <c r="S22" s="97"/>
+      <c r="T22" s="97"/>
+      <c r="U22" s="97"/>
+      <c r="V22" s="97"/>
+      <c r="W22" s="97"/>
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2272,29 +2302,29 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="111" t="s">
+      <c r="F25" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="113"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="78"/>
       <c r="Q25" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R25" s="111" t="s">
+      <c r="R25" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="113"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="78"/>
       <c r="W25" s="12"/>
     </row>
     <row r="26" spans="1:24" s="2" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2328,35 +2358,35 @@
         <v>19</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="113"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="78"/>
       <c r="L27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="84" t="s">
+      <c r="M27" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
+      <c r="N27" s="139"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="139"/>
       <c r="Q27" s="48" t="s">
         <v>21</v>
       </c>
       <c r="R27" s="49"/>
-      <c r="S27" s="84" t="s">
+      <c r="S27" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="T27" s="84"/>
-      <c r="U27" s="84"/>
-      <c r="V27" s="84"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="139"/>
+      <c r="V27" s="139"/>
       <c r="W27" s="22"/>
     </row>
     <row r="28" spans="1:24" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2390,35 +2420,35 @@
         <v>22</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="111" t="s">
+      <c r="D29" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="88" t="s">
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="89"/>
-      <c r="L29" s="111" t="s">
+      <c r="K29" s="84"/>
+      <c r="L29" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="112"/>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="113"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="78"/>
       <c r="Q29" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="111" t="s">
+      <c r="R29" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="113"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="78"/>
       <c r="W29" s="22"/>
     </row>
     <row r="30" spans="1:24" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2449,14 +2479,14 @@
       <c r="B31" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="113"/>
+      <c r="C31" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
       <c r="I31" s="149" t="s">
         <v>56</v>
       </c>
@@ -2464,21 +2494,21 @@
       <c r="K31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="142"/>
-      <c r="M31" s="142"/>
-      <c r="N31" s="142"/>
-      <c r="O31" s="142"/>
-      <c r="P31" s="142"/>
+      <c r="L31" s="157"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="157"/>
+      <c r="O31" s="157"/>
+      <c r="P31" s="157"/>
       <c r="Q31" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="R31" s="118" t="s">
+      <c r="R31" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="S31" s="119"/>
-      <c r="T31" s="119"/>
-      <c r="U31" s="119"/>
-      <c r="V31" s="120"/>
+      <c r="S31" s="80"/>
+      <c r="T31" s="80"/>
+      <c r="U31" s="80"/>
+      <c r="V31" s="81"/>
       <c r="W31" s="43"/>
     </row>
     <row r="32" spans="1:24" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2531,30 +2561,30 @@
       <c r="W33" s="31"/>
     </row>
     <row r="34" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
       <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2584,153 +2614,155 @@
       <c r="X35" s="2"/>
     </row>
     <row r="36" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="94" t="s">
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="94"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="102" t="s">
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="102"/>
-      <c r="S36" s="136" t="s">
+      <c r="P36" s="106"/>
+      <c r="Q36" s="106"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="T36" s="137"/>
-      <c r="U36" s="137"/>
-      <c r="V36" s="138"/>
+      <c r="T36" s="152"/>
+      <c r="U36" s="152"/>
+      <c r="V36" s="153"/>
       <c r="W36" s="23"/>
     </row>
     <row r="37" spans="1:24" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="98"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="103" t="s">
+      <c r="B37" s="100"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="P37" s="103"/>
-      <c r="Q37" s="103" t="s">
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="R37" s="103"/>
-      <c r="S37" s="139"/>
-      <c r="T37" s="140"/>
-      <c r="U37" s="140"/>
-      <c r="V37" s="141"/>
+      <c r="R37" s="105"/>
+      <c r="S37" s="154"/>
+      <c r="T37" s="155"/>
+      <c r="U37" s="155"/>
+      <c r="V37" s="156"/>
       <c r="W37" s="23"/>
     </row>
     <row r="38" spans="1:24" s="4" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="99" t="s">
+      <c r="B38" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="108" t="s">
+      <c r="C38" s="103"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="92"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="85">
+        <v>43221</v>
+      </c>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="85">
+        <v>43223</v>
+      </c>
+      <c r="R38" s="86"/>
+      <c r="S38" s="158"/>
+      <c r="T38" s="159"/>
+      <c r="U38" s="159"/>
+      <c r="V38" s="160"/>
+      <c r="W38" s="23"/>
+    </row>
+    <row r="39" spans="1:24" s="4" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="109"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="104">
-        <v>43221</v>
-      </c>
-      <c r="P38" s="105"/>
-      <c r="Q38" s="104">
-        <v>43223</v>
-      </c>
-      <c r="R38" s="105"/>
-      <c r="S38" s="143"/>
-      <c r="T38" s="144"/>
-      <c r="U38" s="144"/>
-      <c r="V38" s="145"/>
-      <c r="W38" s="23"/>
-    </row>
-    <row r="39" spans="1:24" s="4" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="99" t="s">
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="85">
+        <v>43224</v>
+      </c>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="85">
+        <v>43224</v>
+      </c>
+      <c r="R39" s="86"/>
+      <c r="S39" s="158"/>
+      <c r="T39" s="159"/>
+      <c r="U39" s="159"/>
+      <c r="V39" s="160"/>
+      <c r="W39" s="23"/>
+    </row>
+    <row r="40" spans="1:24" s="4" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="108" t="s">
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="110"/>
-      <c r="O39" s="104">
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="93"/>
+      <c r="O40" s="85">
         <v>43224</v>
       </c>
-      <c r="P39" s="105"/>
-      <c r="Q39" s="104">
-        <v>43225</v>
-      </c>
-      <c r="R39" s="105"/>
-      <c r="S39" s="143"/>
-      <c r="T39" s="144"/>
-      <c r="U39" s="144"/>
-      <c r="V39" s="145"/>
-      <c r="W39" s="23"/>
-    </row>
-    <row r="40" spans="1:24" s="4" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="109"/>
-      <c r="L40" s="109"/>
-      <c r="M40" s="109"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="104">
-        <v>43208</v>
-      </c>
-      <c r="P40" s="105"/>
-      <c r="Q40" s="104">
-        <v>43208</v>
-      </c>
-      <c r="R40" s="105"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="85">
+        <v>43228</v>
+      </c>
+      <c r="R40" s="86"/>
       <c r="S40" s="55"/>
       <c r="T40" s="56"/>
       <c r="U40" s="56"/>
@@ -2738,31 +2770,31 @@
       <c r="W40" s="23"/>
     </row>
     <row r="41" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="99" t="s">
+      <c r="B41" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="108" t="s">
-        <v>72</v>
-      </c>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="109"/>
-      <c r="K41" s="109"/>
-      <c r="L41" s="109"/>
-      <c r="M41" s="109"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="104">
-        <v>43209</v>
-      </c>
-      <c r="P41" s="105"/>
-      <c r="Q41" s="104">
-        <v>43210</v>
-      </c>
-      <c r="R41" s="105"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="85">
+        <v>43228</v>
+      </c>
+      <c r="P41" s="86"/>
+      <c r="Q41" s="85">
+        <v>43228</v>
+      </c>
+      <c r="R41" s="86"/>
       <c r="S41" s="58"/>
       <c r="T41" s="59"/>
       <c r="U41" s="59"/>
@@ -2770,29 +2802,31 @@
       <c r="W41" s="23"/>
     </row>
     <row r="42" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="99" t="s">
+      <c r="B42" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
-      <c r="L42" s="109"/>
-      <c r="M42" s="109"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="104">
-        <v>43213</v>
-      </c>
-      <c r="P42" s="105"/>
-      <c r="Q42" s="104">
-        <v>43214</v>
-      </c>
-      <c r="R42" s="105"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="92"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="92"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="85">
+        <v>43229</v>
+      </c>
+      <c r="P42" s="86"/>
+      <c r="Q42" s="85">
+        <v>43230</v>
+      </c>
+      <c r="R42" s="86"/>
       <c r="S42" s="61"/>
       <c r="T42" s="62"/>
       <c r="U42" s="64"/>
@@ -2800,168 +2834,193 @@
       <c r="W42" s="23"/>
     </row>
     <row r="43" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="99" t="s">
+      <c r="B43" s="102" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="100"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="109"/>
-      <c r="I43" s="109"/>
-      <c r="J43" s="109"/>
-      <c r="K43" s="109"/>
-      <c r="L43" s="109"/>
-      <c r="M43" s="109"/>
-      <c r="N43" s="110"/>
-      <c r="O43" s="104">
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="69"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="71"/>
+      <c r="U43" s="64"/>
+      <c r="V43" s="72"/>
+      <c r="W43" s="23"/>
+    </row>
+    <row r="44" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="92"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="93"/>
+      <c r="O44" s="85">
         <v>43214</v>
       </c>
-      <c r="P43" s="105"/>
-      <c r="Q43" s="104">
+      <c r="P44" s="86"/>
+      <c r="Q44" s="85">
         <v>43220</v>
       </c>
-      <c r="R43" s="105"/>
-      <c r="S43" s="65"/>
-      <c r="T43" s="66"/>
-      <c r="U43" s="64"/>
-      <c r="V43" s="67"/>
-      <c r="W43" s="23"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25"/>
+      <c r="R44" s="86"/>
+      <c r="S44" s="65"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="64"/>
+      <c r="V44" s="67"/>
+      <c r="W44" s="23"/>
+    </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:24" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="31"/>
-    </row>
-    <row r="49" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="71" t="s">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:24" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="31"/>
+    </row>
+    <row r="50" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="71"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="71"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="71"/>
-      <c r="V49" s="71"/>
-      <c r="W49" s="71"/>
-      <c r="X49" s="2"/>
-    </row>
-    <row r="50" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="97"/>
+      <c r="J50" s="97"/>
+      <c r="K50" s="97"/>
+      <c r="L50" s="97"/>
+      <c r="M50" s="97"/>
+      <c r="N50" s="97"/>
+      <c r="O50" s="97"/>
+      <c r="P50" s="97"/>
+      <c r="Q50" s="97"/>
+      <c r="R50" s="97"/>
+      <c r="S50" s="97"/>
+      <c r="T50" s="97"/>
+      <c r="U50" s="97"/>
+      <c r="V50" s="97"/>
+      <c r="W50" s="97"/>
       <c r="X50" s="2"/>
     </row>
-    <row r="51" spans="1:24" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="68" t="s">
+    <row r="51" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="2"/>
+    </row>
+    <row r="52" spans="1:24" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="69"/>
-      <c r="N51" s="69"/>
-      <c r="O51" s="69"/>
-      <c r="P51" s="69"/>
-      <c r="Q51" s="69"/>
-      <c r="R51" s="69"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="69"/>
-      <c r="U51" s="69"/>
-      <c r="V51" s="70"/>
-      <c r="W51" s="23"/>
-    </row>
-    <row r="52" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="95"/>
+      <c r="M52" s="95"/>
+      <c r="N52" s="95"/>
+      <c r="O52" s="95"/>
+      <c r="P52" s="95"/>
+      <c r="Q52" s="95"/>
+      <c r="R52" s="95"/>
+      <c r="S52" s="95"/>
+      <c r="T52" s="95"/>
+      <c r="U52" s="95"/>
+      <c r="V52" s="96"/>
       <c r="W52" s="23"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+    </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25"/>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25"/>
@@ -3017,12 +3076,10 @@
     <row r="106" x14ac:dyDescent="0.25"/>
     <row r="107" x14ac:dyDescent="0.25"/>
     <row r="108" x14ac:dyDescent="0.25"/>
+    <row r="109" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
+  <mergeCells count="75">
+    <mergeCell ref="Q44:R44"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="B34:W34"/>
     <mergeCell ref="S36:V37"/>
@@ -3035,34 +3092,37 @@
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="O42:P42"/>
     <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="B41:E41"/>
     <mergeCell ref="F41:N41"/>
     <mergeCell ref="O41:P41"/>
     <mergeCell ref="F40:N40"/>
     <mergeCell ref="O40:P40"/>
-    <mergeCell ref="F42:N42"/>
-    <mergeCell ref="R29:V29"/>
-    <mergeCell ref="R31:V31"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:N44"/>
+    <mergeCell ref="O44:P44"/>
     <mergeCell ref="E16:O16"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B43:E43"/>
     <mergeCell ref="T16:V16"/>
     <mergeCell ref="B22:W22"/>
     <mergeCell ref="S27:V27"/>
     <mergeCell ref="F25:P25"/>
     <mergeCell ref="R25:V25"/>
-    <mergeCell ref="C31:H31"/>
     <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="P10:R12"/>
     <mergeCell ref="E10:O10"/>
     <mergeCell ref="L12:O12"/>
+    <mergeCell ref="D1:W1"/>
+    <mergeCell ref="D3:W3"/>
+    <mergeCell ref="D2:W2"/>
     <mergeCell ref="Q14:S14"/>
     <mergeCell ref="E14:J14"/>
     <mergeCell ref="E12:J12"/>
@@ -3071,31 +3131,32 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="B7:W7"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="D5:W5"/>
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="F36:N37"/>
     <mergeCell ref="F38:N38"/>
-    <mergeCell ref="B51:V51"/>
-    <mergeCell ref="B49:W49"/>
-    <mergeCell ref="D1:W1"/>
-    <mergeCell ref="D3:W3"/>
-    <mergeCell ref="D5:W5"/>
-    <mergeCell ref="D2:W2"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B52:V52"/>
+    <mergeCell ref="B50:W50"/>
     <mergeCell ref="B36:E37"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="B39:E39"/>
-    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="F42:N42"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="B41:E41"/>
     <mergeCell ref="O36:R36"/>
+    <mergeCell ref="R29:V29"/>
+    <mergeCell ref="R31:V31"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:P29"/>
   </mergeCells>
   <dataValidations xWindow="662" yWindow="599" count="1">
-    <dataValidation type="textLength" errorStyle="information" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Máximo 300 caracteres" error="Excede el número maximo de caracteres_x000a_" promptTitle="Introducir " prompt="Máximo 300 caracteres" sqref="F39:N41 F42:F43 F38" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" errorStyle="information" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Máximo 300 caracteres" error="Excede el número maximo de caracteres_x000a_" promptTitle="Introducir " prompt="Máximo 300 caracteres" sqref="F39:N41 F42:F44 F38" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>200</formula1>
     </dataValidation>
   </dataValidations>

--- a/Bitacoras/5.Inicio 13 Mayo/BITACORA ETAPA PRODUCTIVA.xlsx
+++ b/Bitacoras/5.Inicio 13 Mayo/BITACORA ETAPA PRODUCTIVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferney.ruiz\Documents\GitHub\Files-Practice\Bitacoras\5.Inicio 13 Mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7FB289FE-281D-4444-BE2F-687CFFA8B7B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EEBD242E-12A3-4DC4-BEF1-71034E108898}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>SERVICIO NACIONAL DE APRENDIZAJE SENA</t>
   </si>
@@ -279,7 +279,13 @@
     <t>Realizar cargue Demografica desde el aplicativo y arreglar el query de financiaciones</t>
   </si>
   <si>
-    <t>Validar la cantidad de registros del cargue de SyR de ETB</t>
+    <t>Optimizar la ETL Cuenta-Conexión, hacer data-cleaning y depurar los datos</t>
+  </si>
+  <si>
+    <t>Validar las columnas que llegan en los archivos planos y compararlas con las tablas historicas de SQL.</t>
+  </si>
+  <si>
+    <t>Validar la cantidad de registros indicador de cambio del cargue de SyR de ETB</t>
   </si>
 </sst>
 </file>
@@ -711,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -875,12 +881,260 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -889,24 +1143,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -919,251 +1155,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1583,9 +1574,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X109"/>
+  <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F44" sqref="F44:N44"/>
     </sheetView>
   </sheetViews>
@@ -1610,138 +1601,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="123"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="132" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="134"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="121"/>
       <c r="X1" s="3"/>
     </row>
     <row r="2" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="116"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="135" t="s">
+      <c r="B2" s="103"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="137"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="124"/>
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="113" t="s">
+      <c r="B3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="115"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="101"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="102"/>
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="116"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="113" t="s">
+      <c r="B4" s="103"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="115"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="102"/>
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="118"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="122"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="109"/>
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1770,30 +1761,30 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
-      <c r="S7" s="97"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="97"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="97"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" s="27" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1854,24 +1845,24 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="126" t="s">
+      <c r="E10" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="128"/>
-      <c r="P10" s="125" t="s">
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="125"/>
-      <c r="R10" s="125"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
       <c r="S10" s="30" t="s">
         <v>11</v>
       </c>
@@ -1903,9 +1894,9 @@
       <c r="M11" s="6"/>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
-      <c r="P11" s="125"/>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="125"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
       <c r="S11" s="38"/>
       <c r="T11" s="52"/>
       <c r="U11" s="52"/>
@@ -1919,26 +1910,26 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="110">
+      <c r="E12" s="97">
         <v>1056592950</v>
       </c>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="112"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="99"/>
       <c r="K12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="129" t="s">
+      <c r="L12" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="125"/>
-      <c r="Q12" s="125"/>
-      <c r="R12" s="125"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="112"/>
       <c r="S12" s="30" t="s">
         <v>12</v>
       </c>
@@ -1985,19 +1976,19 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="108" t="s">
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="108"/>
-      <c r="M14" s="109"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="93"/>
       <c r="N14" s="53">
         <v>27</v>
       </c>
@@ -2007,11 +1998,11 @@
       <c r="P14" s="53">
         <v>2018</v>
       </c>
-      <c r="Q14" s="107" t="s">
+      <c r="Q14" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="R14" s="108"/>
-      <c r="S14" s="109"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="93"/>
       <c r="T14" s="51">
         <v>27</v>
       </c>
@@ -2055,30 +2046,30 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="146" t="s">
+      <c r="E16" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="147"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="147"/>
-      <c r="O16" s="148"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="138"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="25" t="s">
         <v>4</v>
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="138">
+      <c r="T16" s="125">
         <v>1193307</v>
       </c>
-      <c r="U16" s="138"/>
-      <c r="V16" s="138"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:24" s="2" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2113,32 +2104,32 @@
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="31"/>
-      <c r="E18" s="139">
+      <c r="E18" s="126">
         <v>3002876907</v>
       </c>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="144" t="s">
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="145"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="83" t="s">
+      <c r="I18" s="135"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="129"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="139" t="s">
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="R18" s="139"/>
-      <c r="S18" s="139"/>
-      <c r="T18" s="139"/>
-      <c r="U18" s="139"/>
-      <c r="V18" s="139"/>
+      <c r="R18" s="126"/>
+      <c r="S18" s="126"/>
+      <c r="T18" s="126"/>
+      <c r="U18" s="126"/>
+      <c r="V18" s="126"/>
       <c r="W18" s="11"/>
     </row>
     <row r="19" spans="1:24" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2217,30 +2208,30 @@
       <c r="W21" s="31"/>
     </row>
     <row r="22" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2302,29 +2293,29 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="76" t="s">
+      <c r="F25" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="78"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
       <c r="Q25" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="R25" s="76" t="s">
+      <c r="R25" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="S25" s="77"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="78"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="96"/>
       <c r="W25" s="12"/>
     </row>
     <row r="26" spans="1:24" s="2" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2358,35 +2349,35 @@
         <v>19</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="76" t="s">
+      <c r="D27" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="78"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="96"/>
       <c r="L27" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="139" t="s">
+      <c r="M27" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="N27" s="139"/>
-      <c r="O27" s="139"/>
-      <c r="P27" s="139"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="126"/>
       <c r="Q27" s="48" t="s">
         <v>21</v>
       </c>
       <c r="R27" s="49"/>
-      <c r="S27" s="139" t="s">
+      <c r="S27" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="T27" s="139"/>
-      <c r="U27" s="139"/>
-      <c r="V27" s="139"/>
+      <c r="T27" s="126"/>
+      <c r="U27" s="126"/>
+      <c r="V27" s="126"/>
       <c r="W27" s="22"/>
     </row>
     <row r="28" spans="1:24" s="2" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2420,35 +2411,35 @@
         <v>22</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="83" t="s">
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="84"/>
-      <c r="L29" s="76" t="s">
+      <c r="K29" s="132"/>
+      <c r="L29" s="127" t="s">
         <v>69</v>
       </c>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="78"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
       <c r="Q29" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="76" t="s">
+      <c r="R29" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="S29" s="77"/>
-      <c r="T29" s="77"/>
-      <c r="U29" s="77"/>
-      <c r="V29" s="78"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="96"/>
       <c r="W29" s="22"/>
     </row>
     <row r="30" spans="1:24" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -2479,36 +2470,36 @@
       <c r="B31" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="149" t="s">
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="J31" s="150"/>
+      <c r="J31" s="142"/>
       <c r="K31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="157"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="149"/>
+      <c r="P31" s="149"/>
       <c r="Q31" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="R31" s="79" t="s">
+      <c r="R31" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="S31" s="80"/>
-      <c r="T31" s="80"/>
-      <c r="U31" s="80"/>
-      <c r="V31" s="81"/>
+      <c r="S31" s="154"/>
+      <c r="T31" s="154"/>
+      <c r="U31" s="154"/>
+      <c r="V31" s="155"/>
       <c r="W31" s="43"/>
     </row>
     <row r="32" spans="1:24" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2561,30 +2552,30 @@
       <c r="W33" s="31"/>
     </row>
     <row r="34" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="97"/>
-      <c r="S34" s="97"/>
-      <c r="T34" s="97"/>
-      <c r="U34" s="97"/>
-      <c r="V34" s="97"/>
-      <c r="W34" s="97"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="74"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74"/>
       <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2614,155 +2605,155 @@
       <c r="X35" s="2"/>
     </row>
     <row r="36" spans="1:24" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="87" t="s">
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="106" t="s">
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="139"/>
+      <c r="O36" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="106"/>
-      <c r="Q36" s="106"/>
-      <c r="R36" s="106"/>
-      <c r="S36" s="151" t="s">
+      <c r="P36" s="90"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="143" t="s">
         <v>36</v>
       </c>
-      <c r="T36" s="152"/>
-      <c r="U36" s="152"/>
-      <c r="V36" s="153"/>
+      <c r="T36" s="144"/>
+      <c r="U36" s="144"/>
+      <c r="V36" s="145"/>
       <c r="W36" s="23"/>
     </row>
     <row r="37" spans="1:24" s="4" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="100"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="105" t="s">
+      <c r="B37" s="78"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="140"/>
+      <c r="O37" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="105" t="s">
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="R37" s="105"/>
-      <c r="S37" s="154"/>
-      <c r="T37" s="155"/>
-      <c r="U37" s="155"/>
-      <c r="V37" s="156"/>
+      <c r="R37" s="87"/>
+      <c r="S37" s="146"/>
+      <c r="T37" s="147"/>
+      <c r="U37" s="147"/>
+      <c r="V37" s="148"/>
       <c r="W37" s="23"/>
     </row>
     <row r="38" spans="1:24" s="4" customFormat="1" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="91" t="s">
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="85">
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="88">
         <v>43221</v>
       </c>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="85">
+      <c r="P38" s="89"/>
+      <c r="Q38" s="88">
         <v>43223</v>
       </c>
-      <c r="R38" s="86"/>
-      <c r="S38" s="158"/>
-      <c r="T38" s="159"/>
-      <c r="U38" s="159"/>
-      <c r="V38" s="160"/>
+      <c r="R38" s="89"/>
+      <c r="S38" s="150"/>
+      <c r="T38" s="151"/>
+      <c r="U38" s="151"/>
+      <c r="V38" s="152"/>
       <c r="W38" s="23"/>
     </row>
     <row r="39" spans="1:24" s="4" customFormat="1" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="91" t="s">
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="85">
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="86"/>
+      <c r="O39" s="88">
         <v>43224</v>
       </c>
-      <c r="P39" s="86"/>
-      <c r="Q39" s="85">
+      <c r="P39" s="89"/>
+      <c r="Q39" s="88">
         <v>43224</v>
       </c>
-      <c r="R39" s="86"/>
-      <c r="S39" s="158"/>
-      <c r="T39" s="159"/>
-      <c r="U39" s="159"/>
-      <c r="V39" s="160"/>
+      <c r="R39" s="89"/>
+      <c r="S39" s="150"/>
+      <c r="T39" s="151"/>
+      <c r="U39" s="151"/>
+      <c r="V39" s="152"/>
       <c r="W39" s="23"/>
     </row>
     <row r="40" spans="1:24" s="4" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="102" t="s">
+      <c r="B40" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="91" t="s">
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="85">
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="88">
         <v>43224</v>
       </c>
-      <c r="P40" s="86"/>
-      <c r="Q40" s="85">
+      <c r="P40" s="89"/>
+      <c r="Q40" s="88">
         <v>43228</v>
       </c>
-      <c r="R40" s="86"/>
+      <c r="R40" s="89"/>
       <c r="S40" s="55"/>
       <c r="T40" s="56"/>
       <c r="U40" s="56"/>
@@ -2770,31 +2761,31 @@
       <c r="W40" s="23"/>
     </row>
     <row r="41" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="102" t="s">
+      <c r="B41" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="91" t="s">
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="85">
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="88">
         <v>43228</v>
       </c>
-      <c r="P41" s="86"/>
-      <c r="Q41" s="85">
+      <c r="P41" s="89"/>
+      <c r="Q41" s="88">
         <v>43228</v>
       </c>
-      <c r="R41" s="86"/>
+      <c r="R41" s="89"/>
       <c r="S41" s="58"/>
       <c r="T41" s="59"/>
       <c r="U41" s="59"/>
@@ -2802,31 +2793,31 @@
       <c r="W41" s="23"/>
     </row>
     <row r="42" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="92"/>
-      <c r="K42" s="92"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="92"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="85">
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="88">
         <v>43229</v>
       </c>
-      <c r="P42" s="86"/>
-      <c r="Q42" s="85">
+      <c r="P42" s="89"/>
+      <c r="Q42" s="88">
         <v>43230</v>
       </c>
-      <c r="R42" s="86"/>
+      <c r="R42" s="89"/>
       <c r="S42" s="61"/>
       <c r="T42" s="62"/>
       <c r="U42" s="64"/>
@@ -2834,59 +2825,67 @@
       <c r="W42" s="23"/>
     </row>
     <row r="43" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="102" t="s">
+      <c r="B43" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="69"/>
-      <c r="S43" s="70"/>
-      <c r="T43" s="71"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="86"/>
+      <c r="O43" s="88">
+        <v>43231</v>
+      </c>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="88">
+        <v>43235</v>
+      </c>
+      <c r="R43" s="89"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="66"/>
       <c r="U43" s="64"/>
-      <c r="V43" s="72"/>
+      <c r="V43" s="67"/>
       <c r="W43" s="23"/>
     </row>
     <row r="44" spans="1:24" s="4" customFormat="1" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="102" t="s">
+      <c r="B44" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="85">
-        <v>43214</v>
-      </c>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="85">
-        <v>43220</v>
-      </c>
-      <c r="R44" s="86"/>
-      <c r="S44" s="65"/>
-      <c r="T44" s="66"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="84" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="88">
+        <v>43235</v>
+      </c>
+      <c r="P44" s="89"/>
+      <c r="Q44" s="88">
+        <v>43235</v>
+      </c>
+      <c r="R44" s="89"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="69"/>
       <c r="U44" s="64"/>
-      <c r="V44" s="67"/>
+      <c r="V44" s="70"/>
       <c r="W44" s="23"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25"/>
@@ -2919,30 +2918,30 @@
       <c r="W49" s="31"/>
     </row>
     <row r="50" spans="1:24" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="97" t="s">
+      <c r="B50" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="97"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
-      <c r="L50" s="97"/>
-      <c r="M50" s="97"/>
-      <c r="N50" s="97"/>
-      <c r="O50" s="97"/>
-      <c r="P50" s="97"/>
-      <c r="Q50" s="97"/>
-      <c r="R50" s="97"/>
-      <c r="S50" s="97"/>
-      <c r="T50" s="97"/>
-      <c r="U50" s="97"/>
-      <c r="V50" s="97"/>
-      <c r="W50" s="97"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="74"/>
+      <c r="R50" s="74"/>
+      <c r="S50" s="74"/>
+      <c r="T50" s="74"/>
+      <c r="U50" s="74"/>
+      <c r="V50" s="74"/>
+      <c r="W50" s="74"/>
       <c r="X50" s="2"/>
     </row>
     <row r="51" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2972,29 +2971,29 @@
       <c r="X51" s="2"/>
     </row>
     <row r="52" spans="1:24" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="94" t="s">
+      <c r="B52" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="95"/>
-      <c r="K52" s="95"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="95"/>
-      <c r="N52" s="95"/>
-      <c r="O52" s="95"/>
-      <c r="P52" s="95"/>
-      <c r="Q52" s="95"/>
-      <c r="R52" s="95"/>
-      <c r="S52" s="95"/>
-      <c r="T52" s="95"/>
-      <c r="U52" s="95"/>
-      <c r="V52" s="96"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="72"/>
+      <c r="V52" s="73"/>
       <c r="W52" s="23"/>
     </row>
     <row r="53" spans="1:24" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3077,9 +3076,13 @@
     <row r="107" x14ac:dyDescent="0.25"/>
     <row r="108" x14ac:dyDescent="0.25"/>
     <row r="109" x14ac:dyDescent="0.25"/>
+    <row r="110" x14ac:dyDescent="0.25"/>
+    <row r="111" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="75">
-    <mergeCell ref="Q44:R44"/>
+  <mergeCells count="78">
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="F41:N41"/>
+    <mergeCell ref="O41:P41"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="B34:W34"/>
     <mergeCell ref="S36:V37"/>
@@ -3089,19 +3092,23 @@
     <mergeCell ref="Q37:R37"/>
     <mergeCell ref="F39:N39"/>
     <mergeCell ref="S38:V38"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="F41:N41"/>
-    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="R31:V31"/>
+    <mergeCell ref="Q39:R39"/>
     <mergeCell ref="F40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:N44"/>
-    <mergeCell ref="O44:P44"/>
     <mergeCell ref="E16:O16"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="F36:N37"/>
+    <mergeCell ref="F38:N38"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="B44:E44"/>
     <mergeCell ref="T16:V16"/>
     <mergeCell ref="B22:W22"/>
     <mergeCell ref="S27:V27"/>
@@ -3114,6 +3121,9 @@
     <mergeCell ref="Q18:V18"/>
     <mergeCell ref="M18:P18"/>
     <mergeCell ref="H18:I18"/>
+    <mergeCell ref="F44:N44"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="R29:V29"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -3132,9 +3142,6 @@
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="B7:W7"/>
     <mergeCell ref="D5:W5"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="F36:N37"/>
-    <mergeCell ref="F38:N38"/>
     <mergeCell ref="B52:V52"/>
     <mergeCell ref="B50:W50"/>
     <mergeCell ref="B36:E37"/>
@@ -3148,15 +3155,12 @@
     <mergeCell ref="Q41:R41"/>
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="O36:R36"/>
-    <mergeCell ref="R29:V29"/>
-    <mergeCell ref="R31:V31"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="O44:P44"/>
   </mergeCells>
   <dataValidations xWindow="662" yWindow="599" count="1">
-    <dataValidation type="textLength" errorStyle="information" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Máximo 300 caracteres" error="Excede el número maximo de caracteres_x000a_" promptTitle="Introducir " prompt="Máximo 300 caracteres" sqref="F39:N41 F42:F44 F38" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="textLength" errorStyle="information" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Máximo 300 caracteres" error="Excede el número maximo de caracteres_x000a_" promptTitle="Introducir " prompt="Máximo 300 caracteres" sqref="F39:N41 F38 F42:F44" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>200</formula1>
     </dataValidation>
   </dataValidations>

--- a/Bitacoras/5.Inicio 13 Mayo/BITACORA ETAPA PRODUCTIVA.xlsx
+++ b/Bitacoras/5.Inicio 13 Mayo/BITACORA ETAPA PRODUCTIVA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferney.ruiz\Documents\GitHub\Files-Practice\Bitacoras\5.Inicio 13 Mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EEBD242E-12A3-4DC4-BEF1-71034E108898}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3CB842BF-9D76-430A-B787-C74EA3822BD6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,10 +282,10 @@
     <t>Optimizar la ETL Cuenta-Conexión, hacer data-cleaning y depurar los datos</t>
   </si>
   <si>
-    <t>Validar las columnas que llegan en los archivos planos y compararlas con las tablas historicas de SQL.</t>
-  </si>
-  <si>
     <t>Validar la cantidad de registros indicador de cambio del cargue de SyR de ETB</t>
+  </si>
+  <si>
+    <t>Validar las columnas que llegan en los archivos planos y compararlas con las tablas historicas de SQL del proyecto ETB</t>
   </si>
 </sst>
 </file>
@@ -1576,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44:N44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42:P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="P41" s="89"/>
       <c r="Q41" s="88">
-        <v>43228</v>
+        <v>43230</v>
       </c>
       <c r="R41" s="89"/>
       <c r="S41" s="58"/>
@@ -2800,7 +2800,7 @@
       <c r="D42" s="82"/>
       <c r="E42" s="83"/>
       <c r="F42" s="84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G42" s="85"/>
       <c r="H42" s="85"/>
@@ -2811,7 +2811,7 @@
       <c r="M42" s="85"/>
       <c r="N42" s="86"/>
       <c r="O42" s="88">
-        <v>43229</v>
+        <v>43230</v>
       </c>
       <c r="P42" s="89"/>
       <c r="Q42" s="88">
@@ -2864,7 +2864,7 @@
       <c r="D44" s="82"/>
       <c r="E44" s="83"/>
       <c r="F44" s="84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G44" s="85"/>
       <c r="H44" s="85"/>
